--- a/src/main/resources/template/invoice/invoiceTemplateAmty.xlsx
+++ b/src/main/resources/template/invoice/invoiceTemplateAmty.xlsx
@@ -40,21 +40,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="16"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">请输入亚马逊仓库代码
-下面相关地址信息会自动填充。
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -87,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>阿玛国际发票模板</t>
   </si>
@@ -105,9 +90,6 @@
   </si>
   <si>
     <t>关税类型</t>
-  </si>
-  <si>
-    <t>关税预付</t>
   </si>
   <si>
     <t>务必填写规范：(只做内容填充，不允许调整格式，不允许合并单元格，填写内容不允许有空格。)</t>
@@ -336,19 +318,23 @@
 （不享受，不确定，享受）</t>
   </si>
   <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S</t>
-    </r>
+    <t>Amazon</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报币种*</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>包税</t>
   </si>
 </sst>
 </file>
@@ -358,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -564,12 +550,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -842,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,6 +920,108 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,6 +1031,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -993,135 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1459,7 +1436,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1487,660 +1464,668 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
     </row>
     <row r="2" spans="1:24" ht="47.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="56" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
     </row>
     <row r="3" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
     </row>
     <row r="4" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
     </row>
     <row r="5" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
     </row>
     <row r="7" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
     </row>
     <row r="8" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
     </row>
     <row r="9" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
     </row>
     <row r="11" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
     </row>
     <row r="12" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
     </row>
     <row r="13" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
     </row>
     <row r="14" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="88"/>
     </row>
     <row r="15" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="49"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="91"/>
     </row>
     <row r="16" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="52"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="94"/>
     </row>
     <row r="17" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="43"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="85"/>
     </row>
     <row r="18" spans="1:24" s="2" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="K18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="L18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="M18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="N18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="O18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="P18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="R18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="S18" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="T18" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="U18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="V18" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="W18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="W18" s="29" t="s">
+      <c r="X18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="29" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="19" spans="1:24" s="95" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
+    <row r="19" spans="1:24" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
     </row>
     <row r="20" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
@@ -2274,56 +2259,56 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:X2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B17:X17"/>
+    <mergeCell ref="K14:X16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:X13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:X11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:X12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:X9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:X10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:X7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:X8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:X5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:X6"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:X3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="K4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:X5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:X6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:X7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:X8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:X9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:X10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:X11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:X12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:X13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B17:X17"/>
-    <mergeCell ref="K14:X16"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:X2"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M12 M17 M19 M2:M11 M14:M16 M20:M24 M25:M1048576">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M17 M19:M1048576 M1:M12">
       <formula1>"不带电不带磁,带磁不带电,带电不带磁"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
@@ -2348,13 +2333,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:J10">
       <formula1>"GBP,USD,EUR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 D2">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 B2">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/template/invoice/invoiceTemplateAmty.xlsx
+++ b/src/main/resources/template/invoice/invoiceTemplateAmty.xlsx
@@ -27,19 +27,6 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="20"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请下拉选择渠道</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -80,9 +67,6 @@
     <t>发货渠道名称</t>
   </si>
   <si>
-    <t>美国-(美森限时达)</t>
-  </si>
-  <si>
     <t>地址类型</t>
   </si>
   <si>
@@ -319,22 +303,26 @@
   </si>
   <si>
     <t>Amazon</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>US</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>申报币种*</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>包税</t>
+  </si>
+  <si>
+    <t>美国海派-(美森限时达)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -527,12 +515,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -812,7 +794,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -822,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,7 +905,7 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,163 +923,154 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="29" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,7 +1409,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J5"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1464,641 +1437,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
     </row>
     <row r="2" spans="1:24" ht="47.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="90"/>
+      <c r="I2" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
     </row>
     <row r="4" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
     </row>
     <row r="5" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
     </row>
     <row r="6" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
     </row>
     <row r="7" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
     </row>
     <row r="8" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
     </row>
     <row r="9" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
     </row>
     <row r="10" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
     </row>
     <row r="11" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
     </row>
     <row r="12" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
     </row>
     <row r="14" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="88"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
     </row>
     <row r="15" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="91"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="62"/>
     </row>
     <row r="16" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="94"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="65"/>
     </row>
     <row r="17" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="85"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="56"/>
     </row>
     <row r="18" spans="1:24" s="2" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="J18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="K18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="L18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="M18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="N18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="O18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="P18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="Q18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="R18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="S18" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="T18" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="U18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="V18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="W18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="W18" s="29" t="s">
+      <c r="X18" s="29" t="s">
         <v>76</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2259,55 +2232,55 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:X2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:X3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:X4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:X5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:X6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:X7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:X8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:X9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:X10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:X11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:X12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:X13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="B17:X17"/>
     <mergeCell ref="K14:X16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:X13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:X11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:X12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:X9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:X10"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:X7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:X8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:X5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:X6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="K3:X3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:X4"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:X2"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
-  <dataValidations count="10">
+  <phoneticPr fontId="28" type="noConversion"/>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M17 M19:M1048576 M1:M12">
       <formula1>"不带电不带磁,带磁不带电,带电不带磁"</formula1>
     </dataValidation>
@@ -2332,9 +2305,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:J10">
       <formula1>"GBP,USD,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 B2">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/src/main/resources/template/invoice/invoiceTemplateAmty.xlsx
+++ b/src/main/resources/template/invoice/invoiceTemplateAmty.xlsx
@@ -303,36 +303,33 @@
   </si>
   <si>
     <t>Amazon</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>US</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>申报币种*</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>包税</t>
   </si>
   <si>
     <t>美国海派-(美森限时达)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-  </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -439,27 +436,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -477,13 +453,6 @@
       <sz val="22"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -496,14 +465,6 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -534,23 +495,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,14 +533,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -710,21 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -762,49 +687,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -839,9 +738,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -860,86 +756,71 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,6 +831,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -968,109 +867,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="A19" sqref="A19:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1437,449 +1258,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" ht="47.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="69" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="91" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
     </row>
     <row r="3" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="72" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
     </row>
     <row r="4" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="72" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
     </row>
     <row r="5" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="72" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
     </row>
     <row r="6" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="72" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
     </row>
     <row r="7" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="72" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
     </row>
     <row r="8" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="72" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
     </row>
     <row r="9" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="72" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
     </row>
     <row r="10" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="15" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="72" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
     </row>
     <row r="11" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="72" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
     </row>
     <row r="12" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="73" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
     </row>
     <row r="13" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
     </row>
     <row r="14" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="16" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -1907,13 +1728,13 @@
       <c r="X14" s="59"/>
     </row>
     <row r="15" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="51" t="s">
@@ -1939,13 +1760,13 @@
       <c r="X15" s="62"/>
     </row>
     <row r="16" spans="1:24" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="52" t="s">
@@ -1971,7 +1792,7 @@
       <c r="X16" s="65"/>
     </row>
     <row r="17" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -2001,287 +1822,131 @@
       <c r="X17" s="56"/>
     </row>
     <row r="18" spans="1:24" s="2" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="V18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="W18" s="29" t="s">
+      <c r="W18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="X18" s="29" t="s">
+      <c r="X18" s="20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-    </row>
-    <row r="21" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-    </row>
-    <row r="22" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-    </row>
-    <row r="23" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-    </row>
-    <row r="24" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:X2"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B17:X17"/>
+    <mergeCell ref="K14:X16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:X13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:X11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:X12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:X9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:X10"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:X7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:X8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:X5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:X6"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:X3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="K4:X4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:X5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:X6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:X7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:X8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:X9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:X10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:X11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:X12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:X13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B17:X17"/>
-    <mergeCell ref="K14:X16"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:X2"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M17 M19:M1048576 M1:M12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M17 M1:M12 M19:M1048576">
       <formula1>"不带电不带磁,带磁不带电,带电不带磁"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
